--- a/medicine/Mort/William_Marwood/William_Marwood.xlsx
+++ b/medicine/Mort/William_Marwood/William_Marwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Marwood, né en 1820 et mort le 4 septembre 1883, fut l’un des plus célèbres bourreaux de l’histoire du Royaume-Uni. Il serait l’inventeur de la technique de pendaison dite « Long Drop » en usage aujourd’hui presque partout dans le monde, dans  les pays utilisant la pendaison comme méthode légale d’exécution. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marwood, qui était cordonnier sur la Church Lane à Horncastle, dans le Lincolnshire, demanda un jour au gouverneur du château de Lincoln qui abritait la prison de la ville, de pouvoir procéder à l’exécution d’un condamné à mort. Il était alors âgé de 52 ans. Le gouverneur accepta son offre, et fut agréablement surpris de l’efficacité avec laquelle ce bourreau qui ressemblait énormément au Prince Albert (époux de la reine Victoria) pendit le 1er avril 1872 William Frederick Horry.
 À la mort de William Calcraft en 1879 (qui avait officié pendant 45 ans), Marwood pris alors sa succession en étant nommé exécuteur par les Sheriffs de Londres et du Middlesex, avec un salaire annuel de 20 £, plus 10 £ par exécution.
@@ -547,7 +561,9 @@
           <t>Pendaisons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre William Frederick Horry qui fut le premier d’entre eux, William Marwood procéda à 176 pendaisons durant sa carrière dont :
 Charles Peace, l'archétype du cambrioleur et assassin de l’époque victorienne, dont le nom sema la terreur au sein de la population à l'époque ; Il fut pendu à la prison Armley à Leeds dans le Yorkshire, le 25 février 1879. Marwood avait apparemment rencontré Peace lors d’un voyage en chemin de fer quelques années auparavant. Celui-ci l’avait questionné sur ses expériences en tant qu’exécuteur. Au moment de sa pendaison, Marwood rassura Peace, en lui disant que sa technique du Long Drop était rapide et indolore ;
